--- a/metadata/agroecology_indicators.xlsx
+++ b/metadata/agroecology_indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Documents\holpa-r-scripts\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87827ACE-EE86-4BC8-97B7-15C64214445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DB3910-A516-42E5-A4D7-C7D2F0973282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{89E84D2E-154A-404D-A5D7-F614EAB78AA2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="384">
   <si>
     <t>principle</t>
   </si>
@@ -1163,6 +1163,15 @@
   </si>
   <si>
     <t>retailers</t>
+  </si>
+  <si>
+    <t>crop_count</t>
+  </si>
+  <si>
+    <t>livestock_count</t>
+  </si>
+  <si>
+    <t>fish_count</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2088,8 @@
   <dimension ref="A1:S295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,6 +5505,9 @@
       <c r="H81" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="I81" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="J81" s="1" t="s">
         <v>137</v>
       </c>
@@ -5541,6 +5553,9 @@
       <c r="F82" s="1">
         <v>3.6666666669999999</v>
       </c>
+      <c r="I82" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="L82" s="1" t="s">
         <v>25</v>
       </c>
@@ -5580,6 +5595,9 @@
       <c r="F83" s="1">
         <v>2.3333333330000001</v>
       </c>
+      <c r="I83" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -5598,6 +5616,9 @@
       <c r="F84" s="1">
         <v>1</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -5622,6 +5643,9 @@
       <c r="H85" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="I85" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="J85" s="1" t="s">
         <v>137</v>
       </c>
@@ -5667,6 +5691,9 @@
       <c r="F86" s="1">
         <v>3.6666666669999999</v>
       </c>
+      <c r="I86" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="L86" s="1" t="s">
         <v>25</v>
       </c>
@@ -5706,6 +5733,9 @@
       <c r="F87" s="1">
         <v>2.3333333330000001</v>
       </c>
+      <c r="I87" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="L87" s="1" t="s">
         <v>25</v>
       </c>
@@ -5745,6 +5775,9 @@
       <c r="F88" s="1">
         <v>1</v>
       </c>
+      <c r="I88" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -5769,6 +5802,9 @@
       <c r="H89" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="I89" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="J89" s="1" t="s">
         <v>137</v>
       </c>
@@ -5814,6 +5850,9 @@
       <c r="F90" s="1">
         <v>3.6666666669999999</v>
       </c>
+      <c r="I90" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="M90" s="1">
         <v>0</v>
       </c>
@@ -5853,6 +5892,9 @@
       <c r="F91" s="1">
         <v>2.3333333330000001</v>
       </c>
+      <c r="I91" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -5871,6 +5913,9 @@
       <c r="F92" s="1">
         <v>1</v>
       </c>
+      <c r="I92" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5936,7 +5981,7 @@
         <v>159</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>181</v>
@@ -5974,7 +6019,7 @@
         <v>159</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>181</v>
@@ -6012,7 +6057,7 @@
         <v>159</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>181</v>
